--- a/cp_revise.xlsx
+++ b/cp_revise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536CB246-4D52-461C-B306-63BEFDABEA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B09DC-4FF7-4FB4-BCC0-CDA1BEC947B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constructive and greedy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Problem link</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/majority-element/description/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/minimum-platforms-1587115620/1</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +576,11 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
